--- a/1.DELIVERABLE/1.10 EFFORT_LOG/Week21/BSS_EffortLog_XuanThaiHien_Week21.xlsx
+++ b/1.DELIVERABLE/1.10 EFFORT_LOG/Week21/BSS_EffortLog_XuanThaiHien_Week21.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t xml:space="preserve">EFFORT LOG </t>
   </si>
@@ -42,7 +42,22 @@
     <t>Actual Time</t>
   </si>
   <si>
-    <t>WEEK: 20</t>
+    <t>Mentor Meeting</t>
+  </si>
+  <si>
+    <t>Presentation EOMP2</t>
+  </si>
+  <si>
+    <t>Team Meeting</t>
+  </si>
+  <si>
+    <t>24/2/2017</t>
+  </si>
+  <si>
+    <t>25/2/2017</t>
+  </si>
+  <si>
+    <t>WEEK: 21</t>
   </si>
 </sst>
 </file>
@@ -150,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -160,12 +175,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -178,6 +187,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +494,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,15 +505,15 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="8" style="3" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="3" customWidth="1"/>
     <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="3" customWidth="1"/>
@@ -514,14 +524,14 @@
     <row r="1" spans="1:27" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -545,14 +555,14 @@
     <row r="2" spans="1:27" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="12" t="s">
-        <v>7</v>
+      <c r="C2" s="10" t="s">
+        <v>12</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -646,12 +656,24 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="C5" s="8">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="7">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -675,12 +697,24 @@
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="8">
+        <v>2</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7">
+        <v>2</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -704,12 +738,24 @@
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="C7" s="8">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
